--- a/lab3/ex3/tabel-ex3.xlsx
+++ b/lab3/ex3/tabel-ex3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\INFO\Faculta\PrecupSerbanMarian_InfoIII_LimbajeFormale\lab3\ex2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\INFO\Faculta\PrecupSerbanMarian_InfoIII_LimbajeFormale\lab3\ex3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC830E9B-A4E1-4120-9E9B-C9ACDB37D014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D919E2-24E5-462B-A3A6-BDEF773A9D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{10834191-A960-44D2-A79A-E4243560AE22}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{10834191-A960-44D2-A79A-E4243560AE22}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,69 +36,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>Q</t>
   </si>
   <si>
-    <t>q0</t>
-  </si>
-  <si>
     <t>q1</t>
   </si>
   <si>
     <t>q2</t>
   </si>
   <si>
-    <t>q3</t>
-  </si>
-  <si>
-    <t>q4</t>
-  </si>
-  <si>
-    <t>q5</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Eroare(full)</t>
-  </si>
-  <si>
-    <t>Eroare(gol)</t>
-  </si>
-  <si>
-    <t>i</t>
-  </si>
-  <si>
-    <t>q6</t>
-  </si>
-  <si>
-    <t>q6(iesire)(final)</t>
-  </si>
-  <si>
-    <t>v</t>
-  </si>
-  <si>
-    <t xml:space="preserve">q1(3 locuri ocupate)	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">q2(2 locuri ocupate)	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">q3(3 locuri ocupate)	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">q4(4 locuri ocupate)	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">q5(5 locuri ocupate)	</t>
-  </si>
-  <si>
-    <t>q0(0 locuri ocupate)(start)</t>
+    <t>q1,q2</t>
+  </si>
+  <si>
+    <t>q0,q1,q2</t>
+  </si>
+  <si>
+    <t>q2(final)</t>
+  </si>
+  <si>
+    <t>q0(start)</t>
   </si>
 </sst>
 </file>
@@ -478,141 +436,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99238E84-DCD5-4D34-AD82-CDA1257B5F90}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>14</v>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
